--- a/02.测试基础学习/assets/04.功能测试.xlsx
+++ b/02.测试基础学习/assets/04.功能测试.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\37500\Desktop\wjy\WorkRecord\02.测试基础学习\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC5710B-F2A6-42EB-82FC-4F57ED5CBEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75A8127-B0BA-4290-823E-324DB0028274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="等价类划分法--计算器" sheetId="1" r:id="rId1"/>
     <sheet name="等价划分法--QQ号" sheetId="2" r:id="rId2"/>
+    <sheet name="等价划分法--区号" sheetId="3" r:id="rId3"/>
+    <sheet name="等价划分法--邮箱区号" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="112">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,6 +241,275 @@
   </si>
   <si>
     <t>123 456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证城市号码正确性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前缀码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后缀码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非“0”开头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非“1”开头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区号：空
+前缀码：345
+后缀码：1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区号：123
+前缀码：345
+后缀码：1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区号为空+前缀码非“0”“1”开头的三位数字+4位数字后缀码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区号为三位数字+前缀码非“0”“1”开头的三位数字+4位数字后缀码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区号：2位数字
+前缀码：345
+后缀码：1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区号：3位字母
+前缀码：345
+后缀码：1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区号：3位汉字
+前缀码：345
+后缀码：1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区号：三位空格
+前缀码：345
+后缀码：1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区号：三位特殊字符
+前缀码：345
+后缀码：1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区号：空
+前缀码：4位数字
+后缀码：1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区号：空
+前缀码：3位字母
+后缀码：1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区号：空
+前缀码：3位汉字
+后缀码：1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区号：空
+前缀码：空
+后缀码：1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区号：空
+前缀码：三位空格
+后缀码：1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区号：空
+前缀码：三位特殊字符
+后缀码：1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区号：空
+前缀码：3位数字“0”开头
+后缀码：1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区号：空
+前缀码：3位数字“1”开头
+后缀码：1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区号：空
+前缀码：3位数字
+后缀码：3位数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区号：空
+前缀码：3位数字
+后缀码：4位字母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区号：空
+前缀码：3位数字
+后缀码：4位汉字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区号：空
+前缀码：3位数字
+后缀码：空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区号：空
+前缀码：3位数字
+后缀码：4位空格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区号：空
+前缀码：3位数字
+后缀码：4位特殊字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试邮箱登录的邮箱名和密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-16位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文、数字、下划线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能全是数字或者下划线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6~18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能空格、汉字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-16位英文、数字、下划线（不能全是数字或者下划线）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-16位全英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小于4位英文、数字、下划线（不能全是数字或者下划线）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小于4位纯英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于16位英文、数字、下划线（不能全是数字或者下划线）</t>
+  </si>
+  <si>
+    <t>大于16位纯英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-16位包含汉字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-16位包含空格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-16位全数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-16位全下划线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>654_asd1234asd_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-16位包含特殊符号（_除外）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6~18位字母、数字、特殊符号混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小于6位字母、数字、特殊符号混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于18位字母、数字、特殊符号混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6~18位包含空格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6~18位包含汉字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -246,7 +517,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +539,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -297,7 +576,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -320,11 +599,189 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -344,15 +801,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -365,6 +886,192 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>294793</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>56973</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CD2C6EE-38C9-F877-F824-34FEB2E06E68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12392025" y="266700"/>
+          <a:ext cx="3857143" cy="1419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1012371</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>55789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>185257</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>147657</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA073C19-04F1-0EF0-6D6F-B13B5A81CE4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6774996" y="1875064"/>
+          <a:ext cx="9364636" cy="5168693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>170352</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142673</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9ECE9F9-4E09-7FC6-557F-7B7F7B6D361E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11296650" y="1781175"/>
+          <a:ext cx="8780952" cy="1619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>636944</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>113958</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E7455B2-F8D1-A0E2-A1A5-059CEBD190CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047875" y="4076700"/>
+          <a:ext cx="9847619" cy="2733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -811,8 +1518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7385CCF9-8FCB-4B73-8D3F-DF54459B6FC4}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -898,7 +1605,7 @@
       <c r="C6" s="6">
         <v>6541624</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="6">
@@ -909,7 +1616,7 @@
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="6">
@@ -920,7 +1627,7 @@
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -931,7 +1638,7 @@
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>49</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -942,7 +1649,7 @@
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -953,7 +1660,7 @@
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>46</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -964,7 +1671,7 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="6" t="s">
@@ -972,7 +1679,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1006,4 +1713,506 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148E2889-3273-49BF-A440-B8038A385986}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="6">
+        <v>4</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26"/>
+    </row>
+    <row r="12" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="22"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1241A87D-B12F-40B6-872D-75B99A119F0E}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26:F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="D12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="D13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="D14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="D15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="D16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="D17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="D18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1" display="654@asd1234asd*7" xr:uid="{BF023AD7-14AB-4833-BA49-CAF68DC06A77}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/02.测试基础学习/assets/04.功能测试.xlsx
+++ b/02.测试基础学习/assets/04.功能测试.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\37500\Desktop\wjy\WorkRecord\02.测试基础学习\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75A8127-B0BA-4290-823E-324DB0028274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E779D44-A786-4C6C-8CAD-316C8326E744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="等价类划分法--计算器" sheetId="1" r:id="rId1"/>
-    <sheet name="等价划分法--QQ号" sheetId="2" r:id="rId2"/>
-    <sheet name="等价划分法--区号" sheetId="3" r:id="rId3"/>
-    <sheet name="等价划分法--邮箱区号" sheetId="4" r:id="rId4"/>
+    <sheet name="等价类划分模板" sheetId="6" r:id="rId1"/>
+    <sheet name="等价类划分法--计算器" sheetId="1" r:id="rId2"/>
+    <sheet name="等价划分法--QQ号" sheetId="2" r:id="rId3"/>
+    <sheet name="等价划分法--区号" sheetId="3" r:id="rId4"/>
+    <sheet name="等价划分法--邮箱区号" sheetId="4" r:id="rId5"/>
+    <sheet name="边界值法模板" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="112">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -576,7 +578,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -776,12 +778,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -805,21 +831,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -870,6 +887,27 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1336,6 +1374,196 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408A46DD-0370-4F15-9CBB-9D1239FE2221}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="31"/>
+      <c r="B2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -1514,12 +1742,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7385CCF9-8FCB-4B73-8D3F-DF54459B6FC4}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E14"/>
+      <selection activeCell="J1" sqref="J1:Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1529,7 +1757,13 @@
     <col min="3" max="3" width="16.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="6" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="18.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -1715,7 +1949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148E2889-3273-49BF-A440-B8038A385986}">
   <dimension ref="A1:F26"/>
   <sheetViews>
@@ -1752,7 +1986,7 @@
       <c r="B2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="29" t="s">
         <v>56</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1768,7 +2002,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="8"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="5" t="s">
         <v>35</v>
       </c>
@@ -1780,7 +2014,7 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="8"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="5" t="s">
         <v>36</v>
       </c>
@@ -1792,7 +2026,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="29" t="s">
         <v>57</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -1806,11 +2040,11 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="8"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F6" s="6"/>
@@ -1818,7 +2052,7 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="8"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="5" t="s">
         <v>36</v>
       </c>
@@ -1832,7 +2066,7 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="29" t="s">
         <v>58</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -1846,7 +2080,7 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="8"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="5" t="s">
         <v>35</v>
       </c>
@@ -1857,143 +2091,143 @@
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="23" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="13"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="17" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="15" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="27" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="15" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="27" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="27" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="15" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="27" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="10" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="19"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="28" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="22"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
@@ -2012,11 +2246,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1241A87D-B12F-40B6-872D-75B99A119F0E}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F26" sqref="F26:F27"/>
     </sheetView>
   </sheetViews>
@@ -2030,10 +2264,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="27" t="s">
         <v>31</v>
       </c>
       <c r="C1" t="s">
@@ -2041,7 +2275,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="27" t="s">
         <v>32</v>
       </c>
       <c r="C2" t="s">
@@ -2077,7 +2311,7 @@
       <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2095,21 +2329,21 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="27" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="27" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2120,7 +2354,7 @@
       <c r="B10" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="28" t="s">
         <v>105</v>
       </c>
       <c r="D10" t="s">
@@ -2185,7 +2419,7 @@
       <c r="A19" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="26" t="s">
         <v>107</v>
       </c>
       <c r="D19" t="s">
@@ -2198,12 +2432,12 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="26" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="26" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2215,4 +2449,194 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1324570C-2CF4-4CAA-9EA5-AB7DDA827968}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="31"/>
+      <c r="B2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/02.测试基础学习/assets/04.功能测试.xlsx
+++ b/02.测试基础学习/assets/04.功能测试.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\37500\Desktop\wjy\WorkRecord\02.测试基础学习\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E779D44-A786-4C6C-8CAD-316C8326E744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A248E863-66C3-45CC-AA89-D702F7557AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6045" yWindow="3075" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="等价类划分模板" sheetId="6" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="等价划分法--区号" sheetId="3" r:id="rId4"/>
     <sheet name="等价划分法--邮箱区号" sheetId="4" r:id="rId5"/>
     <sheet name="边界值法模板" sheetId="5" r:id="rId6"/>
+    <sheet name="边界值法--计算器" sheetId="7" r:id="rId7"/>
+    <sheet name="边界值法--QQ号 " sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="131">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -512,6 +514,81 @@
   </si>
   <si>
     <t>6~18位包含汉字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.提取数据编写用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.确定边界值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不超过2位之间的整数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于两位数的整数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小于两位数的整数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含符号(除去小数点)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含空格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含小数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`1 `</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6~10</t>
+  </si>
+  <si>
+    <t>6位自然数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10位自然数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,7 +596,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,8 +628,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -577,6 +669,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -807,7 +905,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -887,27 +985,60 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1392,50 +1523,50 @@
       <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="31"/>
+      <c r="A2" s="33"/>
       <c r="B2" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1471,13 +1602,13 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1498,7 +1629,7 @@
       <c r="E8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="29" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -1747,7 +1878,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:Q12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1986,7 +2117,7 @@
       <c r="B2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="34" t="s">
         <v>56</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -2002,7 +2133,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="29"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="5" t="s">
         <v>35</v>
       </c>
@@ -2014,7 +2145,7 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="29"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="5" t="s">
         <v>36</v>
       </c>
@@ -2026,7 +2157,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="34" t="s">
         <v>57</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -2040,7 +2171,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="29"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="5" t="s">
         <v>35</v>
       </c>
@@ -2052,7 +2183,7 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="29"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="5" t="s">
         <v>36</v>
       </c>
@@ -2066,7 +2197,7 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="34" t="s">
         <v>58</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -2080,7 +2211,7 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="29"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="5" t="s">
         <v>35</v>
       </c>
@@ -2092,7 +2223,7 @@
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="30"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="20" t="s">
         <v>36</v>
       </c>
@@ -2453,70 +2584,70 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1324570C-2CF4-4CAA-9EA5-AB7DDA827968}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="31"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -2534,9 +2665,9 @@
       <c r="E5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
@@ -2544,95 +2675,936 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="A7" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759E3500-6E48-4021-AA92-AD67A3396C06}">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="32"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="42"/>
+      <c r="B6" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="44">
+        <v>1</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="44">
+        <v>100</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="44">
+        <v>99</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="44">
+        <v>-100</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="44">
+        <v>-99</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="42">
+        <v>1.2</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="D9" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="D10" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="37"/>
+      <c r="B15" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="47">
+        <v>99</v>
+      </c>
+      <c r="D15" s="47">
+        <v>-99</v>
+      </c>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="47">
+        <v>100</v>
+      </c>
+      <c r="E16" s="37"/>
+      <c r="F16" s="47">
+        <v>-100</v>
+      </c>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="37"/>
+      <c r="B17" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="47">
+        <v>1</v>
+      </c>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E10" r:id="rId1" xr:uid="{0ED9EED6-59C6-4C98-9562-A5456E8FC0DE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B79E70B-1E2C-42E3-9CE2-710B254F6C14}">
+  <dimension ref="A1:S24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="18.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="34"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="32"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="42"/>
+      <c r="B6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="6">
+        <v>65416244</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="6">
+        <v>12345</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="42"/>
+      <c r="B7" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="6">
+        <v>6541624</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="6">
+        <v>12345678910</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="42"/>
+      <c r="B8" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="6">
+        <v>6541624445</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="42"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="42"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="42"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="42"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="37"/>
+      <c r="B15" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="48">
+        <v>6</v>
+      </c>
+      <c r="D15" s="48">
+        <v>10</v>
+      </c>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="48">
+        <v>5</v>
+      </c>
+      <c r="D16" s="48">
+        <v>11</v>
+      </c>
+      <c r="E16" s="37"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="37"/>
+      <c r="B17" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="48">
+        <v>8</v>
+      </c>
+      <c r="D17" s="48"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
   </mergeCells>

--- a/02.测试基础学习/assets/04.功能测试.xlsx
+++ b/02.测试基础学习/assets/04.功能测试.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\37500\Desktop\wjy\WorkRecord\02.测试基础学习\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A248E863-66C3-45CC-AA89-D702F7557AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CABF71A-A901-4E4D-95E5-D8EE39E381D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6045" yWindow="3075" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="等价类划分模板" sheetId="6" r:id="rId1"/>
-    <sheet name="等价类划分法--计算器" sheetId="1" r:id="rId2"/>
-    <sheet name="等价划分法--QQ号" sheetId="2" r:id="rId3"/>
-    <sheet name="等价划分法--区号" sheetId="3" r:id="rId4"/>
-    <sheet name="等价划分法--邮箱区号" sheetId="4" r:id="rId5"/>
-    <sheet name="边界值法模板" sheetId="5" r:id="rId6"/>
-    <sheet name="边界值法--计算器" sheetId="7" r:id="rId7"/>
-    <sheet name="边界值法--QQ号 " sheetId="8" r:id="rId8"/>
+    <sheet name="边界值法模板" sheetId="5" r:id="rId2"/>
+    <sheet name="计算器" sheetId="1" r:id="rId3"/>
+    <sheet name="QQ号" sheetId="2" r:id="rId4"/>
+    <sheet name="区号" sheetId="3" r:id="rId5"/>
+    <sheet name="邮箱" sheetId="4" r:id="rId6"/>
+    <sheet name="标题长度" sheetId="10" r:id="rId7"/>
+    <sheet name="主被叫" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="211">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -589,6 +589,1406 @@
   </si>
   <si>
     <t>10位自然数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题长度合法性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小于等于30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~30个长度的字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于30个长度的字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度等于0的字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15个长度的字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31个长度的字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个长度的字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title_002</t>
+  </si>
+  <si>
+    <t>title_003</t>
+  </si>
+  <si>
+    <t>title_004</t>
+  </si>
+  <si>
+    <t>30个长度的字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title_005</t>
+  </si>
+  <si>
+    <t>passage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>p3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王王王王王王王王王王王王王王王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王王王王王王王王王王王王王王王
+王王王王王王王王王王王王王王王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王王王王王王王王王王王王王王王
+王王王王王王王王王王王王王王王
+c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证1个长度字符的标题是否合法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证15个长度字符的标题是否合法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证30个长度字符的标题是否合法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证31个长度字符的标题是否合法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证空标题是否合法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试邮箱名和密码的合法性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>邮箱名：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">4~16；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6~18</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>邮箱名：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">英文、数字、下划线；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>密码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>字符</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>邮箱名：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">不能全是数字或下划线
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>密码：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>邮箱名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：小于4位英文、数字、下划线
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：6~18字符</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>邮箱名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：大于16位英文、数字、下划线
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：6~18字符</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>邮箱名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：4-16位英文、数字、下划线
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：小于6位字符</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>邮箱名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：4-16位英文、数字、下划线
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：大于18位字符</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>邮箱名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：4-16位数字
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：6~18字符</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>邮箱名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：4-16位下划线
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：6~18字符</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>邮箱名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：4-16位包含特殊字符（除下划线）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：6~18字符</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>邮箱名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：4-16位包含汉字
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：6~18字符</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>邮箱名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：4-16位英文、数字、下划线
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：6~18字符</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>邮箱名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：4-16位数字、下划线
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：6~18字符</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>邮箱名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：4-16位英文、下划线
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：6~18字符</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>邮箱名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：4-16位英文、数字
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：6~18字符</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>邮箱名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：4-16位英文
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：6~18字符</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>邮箱名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：4位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：6</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>邮箱名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：16位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：18</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>邮箱名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：8位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>邮箱名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：8位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：5</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>邮箱名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：8位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：19</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>邮箱名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：3位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>邮箱名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：17位
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>邮箱名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：空
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：6~18字符</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>邮箱名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：4-16位英文、数字、下划线
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：空</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>邮箱名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：4-16位包含空格
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：6~18字符</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明确需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画出判定表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订购单的价差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额是否大于500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否过期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否发出批准单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否发出提货单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否发出通知单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件修改规则验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一列字符是否为A或B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二列字符是否是一个数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件是否修改成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,7 +1996,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -643,8 +2043,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -675,8 +2096,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -900,12 +2339,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -988,31 +2522,108 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1022,23 +2633,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1154,16 +2797,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>170352</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>142673</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2732577</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123623</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1186,8 +2829,57 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11296650" y="1781175"/>
+          <a:off x="1038225" y="3933825"/>
           <a:ext cx="8780952" cy="1619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28578</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>246857</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85431</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AADEF3AB-7E40-70F0-9E57-899AFB7F880A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5267328" y="133351"/>
+          <a:ext cx="4333079" cy="1609430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1198,23 +2890,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>636944</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>113958</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>101556</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E7455B2-F8D1-A0E2-A1A5-059CEBD190CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC02C9B-E3DD-F569-3D12-127D1A736F78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1230,8 +2922,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="4076700"/>
-          <a:ext cx="9847619" cy="2733333"/>
+          <a:off x="4238625" y="2228851"/>
+          <a:ext cx="2847975" cy="1730330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1523,50 +3215,50 @@
       <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="33"/>
+      <c r="A2" s="57"/>
       <c r="B2" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
       <c r="C4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1602,13 +3294,13 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1695,12 +3387,332 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1324570C-2CF4-4CAA-9EA5-AB7DDA827968}">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="60"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="64"/>
+      <c r="B2" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="63"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="42"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="42"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="42"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="42"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="42"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="42"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="42"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="43"/>
+      <c r="B15" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="43"/>
+      <c r="B16" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="43"/>
+      <c r="B17" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:H1"/>
+      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1867,18 +3879,368 @@
         <v>10</v>
       </c>
     </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="70"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="67"/>
+      <c r="B17" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="67"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="67"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="56"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="32"/>
+      <c r="B21" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="34">
+        <v>1</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="34">
+        <v>100</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="34">
+        <v>99</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="34">
+        <v>-100</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="34">
+        <v>-99</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="32">
+        <v>1.2</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24"/>
+      <c r="D24" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25"/>
+      <c r="D25" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="30"/>
+      <c r="B30" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="37">
+        <v>99</v>
+      </c>
+      <c r="D30" s="37">
+        <v>-99</v>
+      </c>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="30"/>
+      <c r="B31" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="30"/>
+      <c r="D31" s="37">
+        <v>100</v>
+      </c>
+      <c r="E31" s="30"/>
+      <c r="F31" s="37">
+        <v>-100</v>
+      </c>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="30"/>
+      <c r="B32" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="37">
+        <v>1</v>
+      </c>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+    </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E25" r:id="rId1" xr:uid="{0ED9EED6-59C6-4C98-9562-A5456E8FC0DE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7385CCF9-8FCB-4B73-8D3F-DF54459B6FC4}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2074,13 +4436,368 @@
         <v>7</v>
       </c>
     </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="70"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="67"/>
+      <c r="B21" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="71"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="67"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="71"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="67"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="56"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="32"/>
+      <c r="B25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="6">
+        <v>65416244</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="6">
+        <v>12345</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="32"/>
+      <c r="B26" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="6">
+        <v>6541624</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="6">
+        <v>12345678910</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="32"/>
+      <c r="B27" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="6">
+        <v>6541624445</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="32"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="32"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="32"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="32"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="30"/>
+      <c r="B34" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="30">
+        <v>6</v>
+      </c>
+      <c r="D34" s="30">
+        <v>10</v>
+      </c>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="30"/>
+      <c r="B35" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="30">
+        <v>5</v>
+      </c>
+      <c r="D35" s="30">
+        <v>11</v>
+      </c>
+      <c r="E35" s="30"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="30"/>
+      <c r="B36" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="30">
+        <v>8</v>
+      </c>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="30"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+    </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148E2889-3273-49BF-A440-B8038A385986}">
   <dimension ref="A1:F26"/>
   <sheetViews>
@@ -2117,7 +4834,7 @@
       <c r="B2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="71" t="s">
         <v>56</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -2133,7 +4850,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="34"/>
+      <c r="C3" s="71"/>
       <c r="D3" s="5" t="s">
         <v>35</v>
       </c>
@@ -2145,7 +4862,7 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="34"/>
+      <c r="C4" s="71"/>
       <c r="D4" s="5" t="s">
         <v>36</v>
       </c>
@@ -2157,7 +4874,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="71" t="s">
         <v>57</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -2171,7 +4888,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="34"/>
+      <c r="C6" s="71"/>
       <c r="D6" s="5" t="s">
         <v>35</v>
       </c>
@@ -2183,7 +4900,7 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="34"/>
+      <c r="C7" s="71"/>
       <c r="D7" s="5" t="s">
         <v>36</v>
       </c>
@@ -2197,7 +4914,7 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="71" t="s">
         <v>58</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -2211,7 +4928,7 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="34"/>
+      <c r="C9" s="71"/>
       <c r="D9" s="5" t="s">
         <v>35</v>
       </c>
@@ -2223,7 +4940,7 @@
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="35"/>
+      <c r="C10" s="72"/>
       <c r="D10" s="20" t="s">
         <v>36</v>
       </c>
@@ -2377,12 +5094,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1241A87D-B12F-40B6-872D-75B99A119F0E}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26:F27"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2534,19 +5251,19 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="D17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="D18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>90</v>
       </c>
@@ -2557,22 +5274,419 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D21" s="26" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D22" s="26" t="s">
         <v>111</v>
       </c>
     </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="73" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="75"/>
+    </row>
+    <row r="33" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="64"/>
+      <c r="B33" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="E33" s="77"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+    </row>
+    <row r="34" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="64"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" s="79"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+    </row>
+    <row r="35" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="64"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="80" t="s">
+        <v>162</v>
+      </c>
+      <c r="E35" s="81"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="63"/>
+    </row>
+    <row r="37" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="42"/>
+      <c r="B37" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="30"/>
+      <c r="D37" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="E37" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+    </row>
+    <row r="38" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="42"/>
+      <c r="B38" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" s="30"/>
+      <c r="D38" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="E38" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+    </row>
+    <row r="39" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="42"/>
+      <c r="B39" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="C39" s="30"/>
+      <c r="D39" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="E39" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+    </row>
+    <row r="40" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="42"/>
+      <c r="B40" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="C40" s="41"/>
+      <c r="D40" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="E40" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+    </row>
+    <row r="41" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="42"/>
+      <c r="B41" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="D41" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+    </row>
+    <row r="42" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="42"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="D42" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+    </row>
+    <row r="43" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="42"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="D43" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+    </row>
+    <row r="44" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="42"/>
+      <c r="B44" s="41"/>
+      <c r="D44" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+    </row>
+    <row r="45" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+    </row>
+    <row r="46" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="30"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+    </row>
+    <row r="47" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="30"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="63"/>
+      <c r="C48" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="D48" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="E48" s="51"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="43"/>
+      <c r="B49" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="D49" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="43"/>
+      <c r="B50" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="D50" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="43"/>
+      <c r="B51" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="52">
+        <v>8</v>
+      </c>
+      <c r="D51" s="52">
+        <v>10</v>
+      </c>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="45"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="41"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="41"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="41"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="41"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+    </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C10" r:id="rId1" display="654@asd1234asd*7" xr:uid="{BF023AD7-14AB-4833-BA49-CAF68DC06A77}"/>
@@ -2582,69 +5696,82 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1324570C-2CF4-4CAA-9EA5-AB7DDA827968}">
-  <dimension ref="A1:H17"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F81EB5F-E650-4486-B965-C2242F8F78D4}">
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="69"/>
+      <c r="H1" s="70"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="67" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="6"/>
+      <c r="D2" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="71"/>
+      <c r="F2" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
       <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="D3" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="71"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
       <c r="C4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="D4" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="57"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -2662,362 +5789,95 @@
       <c r="D5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B2:B4"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759E3500-6E48-4021-AA92-AD67A3396C06}">
-  <dimension ref="A1:H24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="44">
-        <v>1</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" s="44">
-        <v>100</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="44">
-        <v>99</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" s="44">
-        <v>-100</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="44">
-        <v>-99</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="42">
-        <v>1.2</v>
-      </c>
+      <c r="A8" s="32"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="D9" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>124</v>
-      </c>
+      <c r="A9" s="32"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="D10" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>125</v>
-      </c>
+      <c r="A10" s="32"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>126</v>
-      </c>
+      <c r="A11" s="32"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>127</v>
-      </c>
+      <c r="A12" s="32"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -3026,93 +5886,95 @@
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="46" t="s">
-        <v>46</v>
-      </c>
+      <c r="D13" s="36"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37" t="s">
+      <c r="A15" s="30"/>
+      <c r="B15" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="47">
-        <v>99</v>
-      </c>
-      <c r="D15" s="47">
-        <v>-99</v>
-      </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
+      <c r="C15" s="30">
+        <v>0</v>
+      </c>
+      <c r="D15" s="30">
+        <v>30</v>
+      </c>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37" t="s">
+      <c r="A16" s="30"/>
+      <c r="B16" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="47">
-        <v>100</v>
-      </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="47">
-        <v>-100</v>
-      </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
+      <c r="C16" s="30">
+        <v>-1</v>
+      </c>
+      <c r="D16" s="30">
+        <v>31</v>
+      </c>
+      <c r="E16" s="30">
+        <v>1</v>
+      </c>
+      <c r="F16" s="39">
+        <v>29</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37" t="s">
+      <c r="A17" s="30"/>
+      <c r="B17" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="47">
-        <v>1</v>
-      </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
+      <c r="C17" s="30">
+        <v>15</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
@@ -3141,465 +6003,108 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="F21" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="F22" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+    <row r="23" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="F23" s="8" t="s">
+        <v>152</v>
+      </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
+    <row r="25" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E10" r:id="rId1" xr:uid="{0ED9EED6-59C6-4C98-9562-A5456E8FC0DE}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B79E70B-1E2C-42E3-9CE2-710B254F6C14}">
-  <dimension ref="A1:S24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="18.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="42"/>
-      <c r="B6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="6">
-        <v>65416244</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="6">
-        <v>12345</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="42"/>
-      <c r="B7" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="6">
-        <v>6541624</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="6">
-        <v>12345678910</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="42"/>
-      <c r="B8" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="6">
-        <v>6541624445</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="42"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="42"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="42"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="42"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="48">
-        <v>6</v>
-      </c>
-      <c r="D15" s="48">
-        <v>10</v>
-      </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="48">
-        <v>5</v>
-      </c>
-      <c r="D16" s="48">
-        <v>11</v>
-      </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="48">
-        <v>8</v>
-      </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="A14:E14"/>
+    <mergeCell ref="B6:B8"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -3611,4 +6116,232 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B39ACA2F-6E6B-4143-98AD-FF0D9341CF83}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="3.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="84" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="84" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="85" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="86" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="86" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" s="86" t="s">
+        <v>202</v>
+      </c>
+      <c r="F3" s="87" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="88" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="89" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="89" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" s="89" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" s="90" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="85" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" s="86" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="86" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" s="87" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="91" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="92" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" s="92" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" s="92" t="s">
+        <v>201</v>
+      </c>
+      <c r="F6" s="93" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="88" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="89" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="89" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="89" t="s">
+        <v>201</v>
+      </c>
+      <c r="F7" s="90" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="84" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="84" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="84" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="86" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" s="86" t="s">
+        <v>207</v>
+      </c>
+      <c r="E15" s="86" t="s">
+        <v>208</v>
+      </c>
+      <c r="F15" s="87" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="88" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" s="89" t="s">
+        <v>207</v>
+      </c>
+      <c r="D16" s="89" t="s">
+        <v>208</v>
+      </c>
+      <c r="E16" s="89" t="s">
+        <v>207</v>
+      </c>
+      <c r="F16" s="90" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="85" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="86" t="s">
+        <v>208</v>
+      </c>
+      <c r="D17" s="86" t="s">
+        <v>208</v>
+      </c>
+      <c r="E17" s="86" t="s">
+        <v>207</v>
+      </c>
+      <c r="F17" s="87" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="91" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="D18" s="92" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="F18" s="93" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="88" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="89" t="s">
+        <v>207</v>
+      </c>
+      <c r="D19" s="89" t="s">
+        <v>208</v>
+      </c>
+      <c r="E19" s="89" t="s">
+        <v>208</v>
+      </c>
+      <c r="F19" s="90" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="84" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/02.测试基础学习/assets/04.功能测试.xlsx
+++ b/02.测试基础学习/assets/04.功能测试.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\37500\Desktop\wjy\WorkRecord\02.测试基础学习\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CABF71A-A901-4E4D-95E5-D8EE39E381D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55D3559-4E1B-4A37-BE97-4C4417AF23DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="等价类划分模板" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="区号" sheetId="3" r:id="rId5"/>
     <sheet name="邮箱" sheetId="4" r:id="rId6"/>
     <sheet name="标题长度" sheetId="10" r:id="rId7"/>
-    <sheet name="主被叫" sheetId="11" r:id="rId8"/>
+    <sheet name="判定表法" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2439,7 +2439,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2581,96 +2581,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
@@ -2680,8 +2590,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3215,50 +3214,50 @@
       <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="65"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="57"/>
+      <c r="A2" s="66"/>
       <c r="B2" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="66"/>
       <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -3294,13 +3293,13 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="56"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="65"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -3402,53 +3401,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="60"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="69"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64" t="s">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
       <c r="H2" s="41"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
       <c r="C3" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
       <c r="H3" s="41"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
       <c r="C4" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
@@ -3466,12 +3465,12 @@
       <c r="D5" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="61" t="s">
+      <c r="E5" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="63"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="72"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="42"/>
@@ -3554,13 +3553,13 @@
       <c r="H13" s="41"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
       <c r="F14" s="41"/>
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
@@ -3880,53 +3879,53 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="70"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="79"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="67"/>
-      <c r="B17" s="67" t="s">
+      <c r="A17" s="76"/>
+      <c r="B17" s="76" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="67"/>
-      <c r="B18" s="67"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="76"/>
       <c r="C18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="67"/>
-      <c r="B19" s="67"/>
+      <c r="A19" s="76"/>
+      <c r="B19" s="76"/>
       <c r="C19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -3944,12 +3943,12 @@
       <c r="D20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="54" t="s">
+      <c r="E20" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="56"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="65"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="32"/>
@@ -4070,13 +4069,13 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="67" t="s">
+      <c r="A29" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -4437,57 +4436,57 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="70"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="79"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="67"/>
-      <c r="B21" s="67" t="s">
+      <c r="A21" s="76"/>
+      <c r="B21" s="76" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="71" t="s">
+      <c r="D21" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="71"/>
+      <c r="E21" s="80"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="67"/>
-      <c r="B22" s="67"/>
+      <c r="A22" s="76"/>
+      <c r="B22" s="76"/>
       <c r="C22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="71" t="s">
+      <c r="D22" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="71"/>
+      <c r="E22" s="80"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="67"/>
-      <c r="B23" s="67"/>
+      <c r="A23" s="76"/>
+      <c r="B23" s="76"/>
       <c r="C23" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -4505,12 +4504,12 @@
       <c r="D24" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="54" t="s">
+      <c r="E24" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="56"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="65"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="32"/>
@@ -4635,13 +4634,13 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="67" t="s">
+      <c r="A33" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -4834,7 +4833,7 @@
       <c r="B2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="80" t="s">
         <v>56</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -4850,7 +4849,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="71"/>
+      <c r="C3" s="80"/>
       <c r="D3" s="5" t="s">
         <v>35</v>
       </c>
@@ -4862,7 +4861,7 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="71"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="5" t="s">
         <v>36</v>
       </c>
@@ -4874,7 +4873,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="80" t="s">
         <v>57</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -4888,7 +4887,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="71"/>
+      <c r="C6" s="80"/>
       <c r="D6" s="5" t="s">
         <v>35</v>
       </c>
@@ -4900,7 +4899,7 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="71"/>
+      <c r="C7" s="80"/>
       <c r="D7" s="5" t="s">
         <v>36</v>
       </c>
@@ -4914,7 +4913,7 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="80" t="s">
         <v>58</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -4928,7 +4927,7 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="71"/>
+      <c r="C9" s="80"/>
       <c r="D9" s="5" t="s">
         <v>35</v>
       </c>
@@ -4940,7 +4939,7 @@
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="72"/>
+      <c r="C10" s="81"/>
       <c r="D10" s="20" t="s">
         <v>36</v>
       </c>
@@ -5290,61 +5289,61 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="73" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="73" t="s">
+      <c r="C32" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="75"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="84"/>
     </row>
     <row r="33" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="64"/>
-      <c r="B33" s="64" t="s">
+      <c r="A33" s="73"/>
+      <c r="B33" s="73" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="76" t="s">
+      <c r="D33" s="85" t="s">
         <v>160</v>
       </c>
-      <c r="E33" s="77"/>
+      <c r="E33" s="86"/>
       <c r="F33" s="41"/>
       <c r="G33" s="41"/>
       <c r="H33" s="41"/>
     </row>
     <row r="34" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="64"/>
-      <c r="B34" s="64"/>
+      <c r="A34" s="73"/>
+      <c r="B34" s="73"/>
       <c r="C34" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="78" t="s">
+      <c r="D34" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="E34" s="79"/>
+      <c r="E34" s="88"/>
       <c r="F34" s="41"/>
       <c r="G34" s="41"/>
       <c r="H34" s="41"/>
     </row>
     <row r="35" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="64"/>
-      <c r="B35" s="64"/>
+      <c r="A35" s="73"/>
+      <c r="B35" s="73"/>
       <c r="C35" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="80" t="s">
+      <c r="D35" s="89" t="s">
         <v>162</v>
       </c>
-      <c r="E35" s="81"/>
+      <c r="E35" s="90"/>
       <c r="F35" s="41"/>
       <c r="G35" s="41"/>
       <c r="H35" s="41"/>
@@ -5362,12 +5361,12 @@
       <c r="D36" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="61" t="s">
+      <c r="E36" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="63"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="72"/>
     </row>
     <row r="37" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A37" s="42"/>
@@ -5525,10 +5524,10 @@
       <c r="H47" s="30"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="61" t="s">
+      <c r="A48" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="B48" s="63"/>
+      <c r="B48" s="72"/>
       <c r="C48" s="51" t="s">
         <v>176</v>
       </c>
@@ -5715,33 +5714,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="68" t="s">
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="79"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67" t="s">
+      <c r="A2" s="76"/>
+      <c r="B2" s="76" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="80" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="71"/>
+      <c r="E2" s="80"/>
       <c r="F2" s="6" t="s">
         <v>133</v>
       </c>
@@ -5749,29 +5748,29 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="67"/>
-      <c r="B3" s="67"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
       <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="71"/>
+      <c r="E3" s="80"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="67"/>
-      <c r="B4" s="67"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
       <c r="C4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="57"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -5789,16 +5788,16 @@
       <c r="D5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="65"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="32"/>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="81" t="s">
         <v>135</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -5816,7 +5815,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="32"/>
-      <c r="B7" s="82"/>
+      <c r="B7" s="91"/>
       <c r="C7" s="6" t="s">
         <v>140</v>
       </c>
@@ -5832,7 +5831,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="32"/>
-      <c r="B8" s="83"/>
+      <c r="B8" s="92"/>
       <c r="C8" s="6" t="s">
         <v>145</v>
       </c>
@@ -5893,13 +5892,13 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -6122,8 +6121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B39ACA2F-6E6B-4143-98AD-FF0D9341CF83}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6134,7 +6133,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="54" t="s">
         <v>192</v>
       </c>
       <c r="B1" t="s">
@@ -6142,102 +6141,102 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="54" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="E3" s="86" t="s">
+      <c r="E3" s="56" t="s">
         <v>202</v>
       </c>
-      <c r="F3" s="87" t="s">
+      <c r="F3" s="57" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="D4" s="89" t="s">
+      <c r="D4" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="E4" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="F4" s="90" t="s">
+      <c r="F4" s="60" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="55" t="s">
         <v>198</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="56" t="s">
         <v>202</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="F5" s="87" t="s">
+      <c r="F5" s="57" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" t="s">
         <v>201</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="D6" t="s">
         <v>202</v>
       </c>
-      <c r="E6" s="92" t="s">
+      <c r="E6" t="s">
         <v>201</v>
       </c>
-      <c r="F6" s="93" t="s">
+      <c r="F6" s="62" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="60" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="54" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="54" t="s">
         <v>192</v>
       </c>
       <c r="B13" t="s">
@@ -6245,97 +6244,97 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="54" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="C15" s="86" t="s">
+      <c r="C15" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="D15" s="86" t="s">
+      <c r="D15" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="E15" s="86" t="s">
+      <c r="E15" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="F15" s="87" t="s">
+      <c r="F15" s="57" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="C16" s="89" t="s">
+      <c r="C16" s="59" t="s">
         <v>207</v>
       </c>
-      <c r="D16" s="89" t="s">
+      <c r="D16" s="59" t="s">
         <v>208</v>
       </c>
-      <c r="E16" s="89" t="s">
+      <c r="E16" s="59" t="s">
         <v>207</v>
       </c>
-      <c r="F16" s="90" t="s">
+      <c r="F16" s="60" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="D17" s="86" t="s">
+      <c r="D17" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="E17" s="86" t="s">
+      <c r="E17" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="F17" s="87" t="s">
+      <c r="F17" s="57" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="C18" s="92" t="s">
+      <c r="C18" t="s">
         <v>208</v>
       </c>
-      <c r="D18" s="92" t="s">
+      <c r="D18" t="s">
         <v>207</v>
       </c>
-      <c r="E18" s="92" t="s">
+      <c r="E18" t="s">
         <v>208</v>
       </c>
-      <c r="F18" s="93" t="s">
+      <c r="F18" s="62" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="58" t="s">
         <v>206</v>
       </c>
-      <c r="C19" s="89" t="s">
+      <c r="C19" s="59" t="s">
         <v>207</v>
       </c>
-      <c r="D19" s="89" t="s">
+      <c r="D19" s="59" t="s">
         <v>208</v>
       </c>
-      <c r="E19" s="89" t="s">
+      <c r="E19" s="59" t="s">
         <v>208</v>
       </c>
-      <c r="F19" s="90" t="s">
+      <c r="F19" s="60" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="84" t="s">
+      <c r="A21" s="54" t="s">
         <v>194</v>
       </c>
     </row>
